--- a/NformTester/NformTester/Keywordscripts/600.20.30.190_CheckTheFunctionalityOfSendTestButton.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.190_CheckTheFunctionalityOfSendTestButton.xlsx
@@ -4724,8 +4724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/NformTester/NformTester/Keywordscripts/600.20.30.190_CheckTheFunctionalityOfSendTestButton.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.30.190_CheckTheFunctionalityOfSendTestButton.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="-900" yWindow="30" windowWidth="8625" windowHeight="7830"/>
@@ -1200,12 +1200,12 @@
     <definedName name="Pause">'Form DataValDepend'!$CD$1</definedName>
     <definedName name="PauseCol">'Form DataValDepend'!$CD:$CD</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7446" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7471" uniqueCount="834">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3993,9 +3993,9 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4438,7 +4438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4722,10 +4722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O99"/>
+  <dimension ref="A1:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="B26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4938,7 +4938,7 @@
         <v>756</v>
       </c>
       <c r="B7" s="3">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -5893,29 +5893,29 @@
       <c r="N40" s="16"/>
       <c r="O40" s="11"/>
     </row>
-    <row r="41" spans="3:15" ht="12" customHeight="1">
+    <row r="41" spans="3:15">
       <c r="C41" s="4">
         <v>40</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F41" s="4">
-        <v>5</v>
-      </c>
-      <c r="G41" s="4"/>
+        <v>304</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
+      <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N41" s="17"/>
       <c r="O41" s="11"/>
     </row>
     <row r="42" spans="3:15">
@@ -5926,18 +5926,16 @@
         <v>793</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>309</v>
+        <v>95</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="I42" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -5945,29 +5943,29 @@
       <c r="N42" s="17"/>
       <c r="O42" s="11"/>
     </row>
-    <row r="43" spans="3:15">
+    <row r="43" spans="3:15" ht="12" customHeight="1">
       <c r="C43" s="4">
         <v>42</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4"/>
       <c r="H43" s="12"/>
-      <c r="I43" s="4"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="17"/>
+      <c r="N43" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O43" s="11"/>
     </row>
     <row r="44" spans="3:15">
@@ -5975,16 +5973,16 @@
         <v>43</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>326</v>
+        <v>793</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>330</v>
+        <v>22</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>817</v>
+        <v>2</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -5995,29 +5993,29 @@
       <c r="N44" s="16"/>
       <c r="O44" s="11"/>
     </row>
-    <row r="45" spans="3:15" ht="12" customHeight="1">
+    <row r="45" spans="3:15">
       <c r="C45" s="4">
         <v>44</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>786</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F45" s="4">
-        <v>30</v>
-      </c>
-      <c r="G45" s="4"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
+        <v>793</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N45" s="16"/>
       <c r="O45" s="11"/>
     </row>
     <row r="46" spans="3:15">
@@ -6025,18 +6023,20 @@
         <v>45</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>611</v>
+        <v>300</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>17</v>
+        <v>303</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H46" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>802</v>
+      </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="4"/>
@@ -6050,13 +6050,13 @@
         <v>46</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>611</v>
+        <v>300</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>2</v>
@@ -6070,23 +6070,31 @@
       <c r="N47" s="16"/>
       <c r="O47" s="11"/>
     </row>
-    <row r="48" spans="3:15" ht="15">
+    <row r="48" spans="3:15">
       <c r="C48" s="4">
         <v>47</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>825</v>
-      </c>
-      <c r="E48" s="12"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="12"/>
+      <c r="D48" s="14" t="s">
+        <v>793</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>803</v>
+      </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
-      <c r="N48" s="16"/>
+      <c r="N48" s="17"/>
       <c r="O48" s="11"/>
     </row>
     <row r="49" spans="3:15">
@@ -6094,24 +6102,24 @@
         <v>48</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="H49" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H49" s="12"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
-      <c r="N49" s="16"/>
+      <c r="N49" s="17"/>
       <c r="O49" s="11"/>
     </row>
     <row r="50" spans="3:15">
@@ -6119,46 +6127,40 @@
         <v>49</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>435</v>
+        <v>330</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>794</v>
-      </c>
-      <c r="I50" s="12"/>
+        <v>817</v>
+      </c>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N50" s="16"/>
       <c r="O50" s="11"/>
     </row>
-    <row r="51" spans="3:15">
+    <row r="51" spans="3:15" ht="12" customHeight="1">
       <c r="C51" s="4">
         <v>50</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="F51" s="4">
+        <v>30</v>
+      </c>
+      <c r="G51" s="4"/>
       <c r="H51" s="12"/>
       <c r="I51" s="12"/>
       <c r="J51" s="4"/>
@@ -6175,28 +6177,24 @@
         <v>51</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>505</v>
+        <v>611</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>375</v>
+        <v>17</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>814</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="H52" s="12"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
-      <c r="N52" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N52" s="16"/>
       <c r="O52" s="11"/>
     </row>
     <row r="53" spans="3:15">
@@ -6204,55 +6202,43 @@
         <v>52</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>505</v>
+        <v>611</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>506</v>
+        <v>17</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>815</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" s="12"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
-      <c r="N53" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N53" s="16"/>
       <c r="O53" s="11"/>
     </row>
-    <row r="54" spans="3:15">
+    <row r="54" spans="3:15" ht="15">
       <c r="C54" s="4">
         <v>53</v>
       </c>
-      <c r="D54" s="14" t="s">
-        <v>793</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>505</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H54" s="4"/>
+      <c r="D54" s="13" t="s">
+        <v>825</v>
+      </c>
+      <c r="E54" s="12"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="12"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
-      <c r="N54" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N54" s="16"/>
       <c r="O54" s="11"/>
     </row>
     <row r="55" spans="3:15">
@@ -6260,28 +6246,24 @@
         <v>54</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>434</v>
+        <v>22</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>815</v>
-      </c>
+        <v>817</v>
+      </c>
+      <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
-      <c r="N55" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N55" s="16"/>
       <c r="O55" s="11"/>
     </row>
     <row r="56" spans="3:15">
@@ -6295,13 +6277,15 @@
         <v>389</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>17</v>
+        <v>435</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="I56" s="12"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -6316,26 +6300,26 @@
         <v>56</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>331</v>
+        <v>432</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="I57" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
       <c r="J57" s="4"/>
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="4"/>
-      <c r="N57" s="16"/>
+      <c r="N57" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O57" s="11"/>
     </row>
     <row r="58" spans="3:15">
@@ -6343,24 +6327,28 @@
         <v>57</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>326</v>
+        <v>505</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>330</v>
+        <v>375</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="H58" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>814</v>
+      </c>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
-      <c r="N58" s="16"/>
+      <c r="N58" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O58" s="11"/>
     </row>
     <row r="59" spans="3:15">
@@ -6368,17 +6356,21 @@
         <v>58</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F59" s="4">
-        <v>30</v>
-      </c>
-      <c r="G59" s="4"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
+        <v>505</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
@@ -6393,16 +6385,16 @@
         <v>59</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>828</v>
+        <v>505</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>829</v>
+        <v>17</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>817</v>
+        <v>2</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -6410,7 +6402,9 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
-      <c r="N60" s="16"/>
+      <c r="N60" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O60" s="11"/>
     </row>
     <row r="61" spans="3:15">
@@ -6418,26 +6412,28 @@
         <v>60</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="4" t="s">
-        <v>830</v>
+      <c r="H61" s="12" t="s">
+        <v>815</v>
       </c>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
-      <c r="N61" s="16"/>
+      <c r="N61" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O61" s="11"/>
     </row>
     <row r="62" spans="3:15">
@@ -6445,24 +6441,26 @@
         <v>61</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>326</v>
+        <v>389</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>330</v>
+        <v>17</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="H62" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H62" s="12"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
-      <c r="N62" s="16"/>
+      <c r="N62" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O62" s="11"/>
     </row>
     <row r="63" spans="3:15">
@@ -6470,24 +6468,26 @@
         <v>62</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F63" s="4">
-        <v>2</v>
-      </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
+        <v>326</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
-      <c r="N63" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N63" s="16"/>
       <c r="O63" s="11"/>
     </row>
     <row r="64" spans="3:15">
@@ -6495,13 +6495,13 @@
         <v>63</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>611</v>
+        <v>326</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>817</v>
@@ -6520,26 +6520,24 @@
         <v>64</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65" s="18" t="s">
-        <v>833</v>
-      </c>
-      <c r="I65" s="4"/>
+        <v>787</v>
+      </c>
+      <c r="F65" s="4">
+        <v>30</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="4"/>
-      <c r="N65" s="16"/>
+      <c r="N65" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O65" s="11"/>
     </row>
     <row r="66" spans="3:15">
@@ -6547,13 +6545,13 @@
         <v>65</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>326</v>
+        <v>828</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>330</v>
+        <v>829</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>817</v>
@@ -6572,24 +6570,26 @@
         <v>66</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>787</v>
-      </c>
-      <c r="F67" s="4">
-        <v>60</v>
-      </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
+        <v>326</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>830</v>
+      </c>
+      <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
-      <c r="N67" s="16" t="s">
-        <v>797</v>
-      </c>
+      <c r="N67" s="16"/>
       <c r="O67" s="11"/>
     </row>
     <row r="68" spans="3:15">
@@ -6597,13 +6597,13 @@
         <v>67</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>611</v>
+        <v>326</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>817</v>
@@ -6622,26 +6622,24 @@
         <v>68</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="F69" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>816</v>
-      </c>
-      <c r="I69" s="4"/>
+        <v>787</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
-      <c r="N69" s="16"/>
+      <c r="N69" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O69" s="11"/>
     </row>
     <row r="70" spans="3:15">
@@ -6649,16 +6647,16 @@
         <v>69</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>326</v>
+        <v>611</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>332</v>
+        <v>17</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>137</v>
+        <v>817</v>
       </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
@@ -6680,13 +6678,13 @@
         <v>326</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>794</v>
+        <v>4</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>833</v>
       </c>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -6707,10 +6705,10 @@
         <v>326</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>17</v>
+        <v>330</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>2</v>
+        <v>817</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -6726,24 +6724,24 @@
         <v>72</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>793</v>
+        <v>786</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>787</v>
+      </c>
+      <c r="F73" s="4">
+        <v>60</v>
+      </c>
+      <c r="G73" s="4"/>
       <c r="H73" s="12"/>
-      <c r="I73" s="4"/>
+      <c r="I73" s="12"/>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="4"/>
-      <c r="N73" s="17"/>
+      <c r="N73" s="16" t="s">
+        <v>797</v>
+      </c>
       <c r="O73" s="11"/>
     </row>
     <row r="74" spans="3:15">
@@ -6754,34 +6752,42 @@
         <v>793</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>300</v>
+        <v>611</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
+        <v>817</v>
+      </c>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
       <c r="J74" s="4"/>
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="4"/>
-      <c r="N74" s="17"/>
+      <c r="N74" s="16"/>
       <c r="O74" s="11"/>
     </row>
-    <row r="75" spans="3:15" ht="15">
+    <row r="75" spans="3:15">
       <c r="C75" s="4">
         <v>74</v>
       </c>
-      <c r="D75" s="13" t="s">
-        <v>806</v>
-      </c>
-      <c r="E75" s="12"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
+      <c r="D75" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>816</v>
+      </c>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
       <c r="K75" s="4"/>
@@ -6797,16 +6803,16 @@
       <c r="D76" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>19</v>
+      <c r="E76" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H76" s="12"/>
+        <v>137</v>
+      </c>
+      <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="4"/>
@@ -6822,16 +6828,18 @@
       <c r="D77" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>19</v>
+      <c r="E77" s="12" t="s">
+        <v>326</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="12"/>
+        <v>13</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>794</v>
+      </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="4"/>
@@ -6848,16 +6856,16 @@
         <v>796</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>392</v>
+        <v>17</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
@@ -6870,26 +6878,24 @@
         <v>78</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>389</v>
+        <v>304</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>435</v>
+        <v>95</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>794</v>
-      </c>
-      <c r="I79" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H79" s="12"/>
+      <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
-      <c r="N79" s="16"/>
+      <c r="N79" s="17"/>
       <c r="O79" s="11"/>
     </row>
     <row r="80" spans="3:15">
@@ -6897,50 +6903,38 @@
         <v>79</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>389</v>
+        <v>300</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>433</v>
+        <v>95</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H80" s="12" t="s">
-        <v>801</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="J80" s="4" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="4"/>
       <c r="K80" s="4"/>
       <c r="L80" s="4"/>
       <c r="M80" s="4"/>
-      <c r="N80" s="16"/>
+      <c r="N80" s="17"/>
       <c r="O80" s="11"/>
     </row>
-    <row r="81" spans="3:15">
+    <row r="81" spans="3:15" ht="15">
       <c r="C81" s="4">
         <v>80</v>
       </c>
-      <c r="D81" s="14" t="s">
-        <v>796</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
+      <c r="D81" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
       <c r="L81" s="4"/>
@@ -6955,16 +6949,16 @@
       <c r="D82" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="E82" s="12" t="s">
-        <v>389</v>
+      <c r="E82" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H82" s="4"/>
+      <c r="H82" s="12"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
@@ -6973,17 +6967,23 @@
       <c r="N82" s="16"/>
       <c r="O82" s="11"/>
     </row>
-    <row r="83" spans="3:15" ht="15">
+    <row r="83" spans="3:15">
       <c r="C83" s="4">
         <v>82</v>
       </c>
-      <c r="D83" s="13" t="s">
-        <v>807</v>
-      </c>
-      <c r="E83" s="12"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="D83" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H83" s="12"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
@@ -6999,17 +6999,17 @@
       <c r="D84" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>19</v>
+      <c r="E84" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>22</v>
+        <v>392</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H84" s="12"/>
-      <c r="I84" s="4"/>
+      <c r="I84" s="12"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
@@ -7024,17 +7024,19 @@
       <c r="D85" s="14" t="s">
         <v>796</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>19</v>
+      <c r="E85" s="12" t="s">
+        <v>389</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="12"/>
-      <c r="I85" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="I85" s="12"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
@@ -7053,14 +7055,20 @@
         <v>389</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H86" s="12"/>
-      <c r="I86" s="12"/>
-      <c r="J86" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="J86" s="4" t="b">
+        <v>1</v>
+      </c>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -7078,14 +7086,12 @@
         <v>389</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>794</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" s="12"/>
       <c r="I87" s="12"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
@@ -7119,9 +7125,13 @@
       <c r="N88" s="16"/>
       <c r="O88" s="11"/>
     </row>
-    <row r="89" spans="3:15">
-      <c r="C89" s="4"/>
-      <c r="D89" s="14"/>
+    <row r="89" spans="3:15" ht="15">
+      <c r="C89" s="4">
+        <v>88</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>807</v>
+      </c>
       <c r="E89" s="12"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
@@ -7135,12 +7145,22 @@
       <c r="O89" s="11"/>
     </row>
     <row r="90" spans="3:15">
-      <c r="C90" s="4"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
+      <c r="C90" s="4">
+        <v>89</v>
+      </c>
+      <c r="D90" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="12"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
@@ -7150,12 +7170,22 @@
       <c r="O90" s="11"/>
     </row>
     <row r="91" spans="3:15">
-      <c r="C91" s="4"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="C91" s="4">
+        <v>90</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="12"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
       <c r="K91" s="4"/>
@@ -7165,13 +7195,23 @@
       <c r="O91" s="11"/>
     </row>
     <row r="92" spans="3:15">
-      <c r="C92" s="4"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="C92" s="4">
+        <v>91</v>
+      </c>
+      <c r="D92" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -7180,13 +7220,25 @@
       <c r="O92" s="11"/>
     </row>
     <row r="93" spans="3:15">
-      <c r="C93" s="4"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="C93" s="4">
+        <v>92</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>808</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="I93" s="12"/>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -7195,11 +7247,21 @@
       <c r="O93" s="11"/>
     </row>
     <row r="94" spans="3:15">
-      <c r="C94" s="4"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
+      <c r="C94" s="4">
+        <v>93</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -7275,8 +7337,8 @@
       <c r="E99" s="12"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
       <c r="J99" s="4"/>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -7284,9 +7346,99 @@
       <c r="N99" s="16"/>
       <c r="O99" s="11"/>
     </row>
+    <row r="100" spans="3:15">
+      <c r="C100" s="4"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="16"/>
+      <c r="O100" s="11"/>
+    </row>
+    <row r="101" spans="3:15">
+      <c r="C101" s="4"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="16"/>
+      <c r="O101" s="11"/>
+    </row>
+    <row r="102" spans="3:15">
+      <c r="C102" s="4"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="16"/>
+      <c r="O102" s="11"/>
+    </row>
+    <row r="103" spans="3:15">
+      <c r="C103" s="4"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="16"/>
+      <c r="O103" s="11"/>
+    </row>
+    <row r="104" spans="3:15">
+      <c r="C104" s="4"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="16"/>
+      <c r="O104" s="11"/>
+    </row>
+    <row r="105" spans="3:15">
+      <c r="C105" s="4"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="16"/>
+      <c r="O105" s="11"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N99">
+  <conditionalFormatting sqref="N2:N105">
     <cfRule type="cellIs" dxfId="1" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -7295,16 +7447,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F61:F99 F2:F59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F67:F105 F2:F65">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D76:D82 D84:D99 D49:D74 D3:D4 D7:D22 D24:D47">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D82:D88 D90:D105 D55:D80 D3:D4 D7:D22 D24:D53">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E61:E99 E2:E59">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E67:E105 E2:E65">
       <formula1>Forms</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G99">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G105">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
   </dataValidations>
